--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail13 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>3.185383877654185e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9184655184278664</v>
+        <v>1.588788726909639e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.6671867693837252</v>
+        <v>2.856919827992651e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.588788726909639e-06</v>
+        <v>-0.08317741102670255</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.856919827992651e-06</v>
+        <v>0.1308748121901124</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08317741102670255</v>
+        <v>0.02399718141524102</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1308748121901124</v>
+        <v>1.930196421436816</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02399718141524102</v>
+        <v>3.175120168715607</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.954257222281909</v>
+        <v>6.716673324044258</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.175120168715607</v>
+        <v>1.066794852288794e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.716673324044258</v>
+        <v>15501603822.24074</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.066794852288794e-17</v>
+        <v>7.772404844996119e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>15501603822.24074</v>
+        <v>2563.505054350638</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.772404844996119e-09</v>
+        <v>2.907522340543777e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2563.505054350638</v>
+        <v>13.18094917757004</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.907522340543777e-05</v>
+        <v>1.05489567073737</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.18094917757004</v>
+        <v>0.005051454335905118</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.05489567073737</v>
+        <v>7.654151325923045</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005051454335905118</v>
+        <v>0.9591369864823045</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.654151325923045</v>
+        <v>0.696008605284414</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9591369864823045</v>
+        <v>188</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.696008605284414</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>14.5187951840488</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>2.943077000600596e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6470215884438295</v>
+        <v>1.353881745790812e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.2128224708092668</v>
+        <v>2.832496646607495e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.353881745790812e-06</v>
+        <v>-0.07670857768257999</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.832496646607495e-06</v>
+        <v>0.1038843764178271</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07670857768257999</v>
+        <v>0.01664376571060605</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1038843764178271</v>
+        <v>1.933851626374692</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01664376571060605</v>
+        <v>2.873060063209358</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.954858337101272</v>
+        <v>5.690147327197225</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.873060063209358</v>
+        <v>1.72746949352382e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.690147327197225</v>
+        <v>9241539187.685905</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.72746949352382e-17</v>
+        <v>1.302520198149453e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9241539187.685905</v>
+        <v>1475.363399906155</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.302520198149453e-08</v>
+        <v>5.938453415628345e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1475.363399906155</v>
+        <v>13.01233766580447</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.938453415628345e-05</v>
+        <v>1.075739457439149</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.01233766580447</v>
+        <v>0.01005504464175251</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.075739457439149</v>
+        <v>6.676261673331933</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01005504464175251</v>
+        <v>0.9588407157330654</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.676261673331933</v>
+        <v>0.7503296335382802</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9588407157330654</v>
+        <v>146</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7503296335382802</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>11.47017074213619</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>2.784579154830499e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4759225889956353</v>
+        <v>1.175044063785846e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.702412838395682</v>
+        <v>2.811484475195322e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.175044063785846e-06</v>
+        <v>-0.07036069928212005</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.811484475195322e-06</v>
+        <v>0.07891728563813864</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07036069928212005</v>
+        <v>0.01115692780301687</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.07891728563813864</v>
+        <v>1.93756307398775</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01115692780301687</v>
+        <v>2.69768321046585</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.956330480572266</v>
+        <v>5.012118877223179</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.69768321046585</v>
+        <v>2.973226419191967e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.012118877223179</v>
+        <v>5371113521.160423</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.973226419191967e-17</v>
+        <v>2.248257602981236e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5371113521.160423</v>
+        <v>857.7419407490668</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.248257602981236e-08</v>
+        <v>9.601106340503032e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>857.7419407490668</v>
+        <v>13.59898719020817</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.601106340503032e-05</v>
+        <v>1.082118263694882</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.59898719020817</v>
+        <v>0.01775556143217316</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.082118263694882</v>
+        <v>5.830999867793524</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01775556143217316</v>
+        <v>0.9605651778206808</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.830999867793524</v>
+        <v>0.7941709095186881</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9605651778206808</v>
+        <v>128</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7941709095186881</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.138345938885365</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>2.683191732877772e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3882146567914656</v>
+        <v>1.038137019932644e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9206642767479964</v>
+        <v>2.793096744564158e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.038137019932644e-06</v>
+        <v>-0.06450558897227258</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.793096744564158e-06</v>
+        <v>0.05659524677380871</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06450558897227258</v>
+        <v>0.007351398719731648</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.05659524677380871</v>
+        <v>1.940548158653708</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.007351398719731648</v>
+        <v>2.40119745046658</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.957423731244359</v>
+        <v>4.932002606491402</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.40119745046658</v>
+        <v>5.320185443572697e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.932002606491402</v>
+        <v>2930532027.720084</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.320185443572697e-17</v>
+        <v>4.109806604267016e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2930532027.720084</v>
+        <v>456.8984816915765</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.109806604267016e-08</v>
+        <v>0.0001472611836353088</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>456.8984816915765</v>
+        <v>13.71223443299332</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001472611836353088</v>
+        <v>1.093575467405329</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.71223443299332</v>
+        <v>0.02768883900285744</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.093575467405329</v>
+        <v>4.754184775004443</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02768883900285744</v>
+        <v>0.9599324689556161</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.754184775004443</v>
+        <v>0.8693382595288258</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9599324689556161</v>
+        <v>112</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8693382595288258</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.22158945470904</v>
       </c>
     </row>
@@ -4977,7 +4941,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441867192410758</v>
+        <v>1.432773216208745</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.39856024154121</v>
@@ -5066,7 +5030,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452754433037251</v>
+        <v>1.450841945108123</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.199995904054275</v>
@@ -5155,7 +5119,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.471123729433818</v>
+        <v>1.462413806771338</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.27987661708283</v>
@@ -5244,7 +5208,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.496313775752482</v>
+        <v>1.486141713400833</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.191184192940768</v>
@@ -5333,7 +5297,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.499289681162336</v>
+        <v>1.491035823353958</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.42587138112792</v>
@@ -5422,7 +5386,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.511305305762001</v>
+        <v>1.499094427602468</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.388617110039619</v>
@@ -5511,7 +5475,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569117747355525</v>
+        <v>1.544620598449663</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.294439239633133</v>
@@ -5600,7 +5564,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604606019943325</v>
+        <v>1.576034069950765</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.901766518340283</v>
@@ -5689,7 +5653,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615492990164075</v>
+        <v>1.582408826417323</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.04176171322182</v>
@@ -5778,7 +5742,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625666415753184</v>
+        <v>1.587049128672183</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.714370519804611</v>
@@ -5867,7 +5831,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607808381185834</v>
+        <v>1.574656574763449</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.712045904870375</v>
@@ -5956,7 +5920,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626206157591499</v>
+        <v>1.580098365168539</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.537613023930086</v>
@@ -6045,7 +6009,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.630415474299304</v>
+        <v>1.582680696051153</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.561251837812053</v>
@@ -6134,7 +6098,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.621456507621585</v>
+        <v>1.587424143155805</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.530272236769003</v>
@@ -6223,7 +6187,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.625516729761133</v>
+        <v>1.592171118776234</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.601859494695046</v>
@@ -6312,7 +6276,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.614836339035196</v>
+        <v>1.586569068290661</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.785680286789967</v>
@@ -6401,7 +6365,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605264508042816</v>
+        <v>1.578344493443835</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.701041749729444</v>
@@ -6490,7 +6454,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.603437255462707</v>
+        <v>1.579612422560993</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.722370928406798</v>
@@ -6579,7 +6543,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.607848896253948</v>
+        <v>1.584039334143009</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.823368553741711</v>
@@ -6668,7 +6632,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.621410275111452</v>
+        <v>1.598358590907522</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.684815788385604</v>
@@ -6757,7 +6721,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621636967069198</v>
+        <v>1.603438631644751</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.742054971491321</v>
@@ -6846,7 +6810,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615796064357941</v>
+        <v>1.604343907681639</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.599198400219206</v>
@@ -6935,7 +6899,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602091913643326</v>
+        <v>1.589580327574111</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.619247197557775</v>
@@ -7024,7 +6988,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579265874666838</v>
+        <v>1.576805205408207</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.696936452984499</v>
@@ -7113,7 +7077,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.565560906441543</v>
+        <v>1.568328171887939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.697580373004751</v>
@@ -7202,7 +7166,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587823307594324</v>
+        <v>1.583303726000153</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.590838991438265</v>
@@ -7291,7 +7255,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590291099062832</v>
+        <v>1.587855993959215</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.618340691603032</v>
@@ -7380,7 +7344,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.618387094055867</v>
+        <v>1.608934792544288</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.518526379398264</v>
@@ -7469,7 +7433,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612137979574903</v>
+        <v>1.597789302978951</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.815243181586645</v>
@@ -7558,7 +7522,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.616810381959531</v>
+        <v>1.605399103111908</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.513783079272514</v>
@@ -7647,7 +7611,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.646632093836535</v>
+        <v>1.627383949272733</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.629306047459846</v>
@@ -7736,7 +7700,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.657158591504356</v>
+        <v>1.634614232546168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.701686617818469</v>
@@ -7825,7 +7789,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.657466196260509</v>
+        <v>1.63616468033153</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.727623076339191</v>
@@ -7914,7 +7878,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633627677835357</v>
+        <v>1.612769556725954</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.837500186620191</v>
@@ -8003,7 +7967,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626469704006789</v>
+        <v>1.608768932805178</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.613745456118565</v>
@@ -8092,7 +8056,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627320236316974</v>
+        <v>1.60563069117883</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.771499209947803</v>
@@ -8181,7 +8145,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.627863831077593</v>
+        <v>1.605745002319284</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.631700828536121</v>
@@ -8270,7 +8234,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.661892154614087</v>
+        <v>1.636363119735064</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.536493438600793</v>
@@ -8359,7 +8323,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693807358517607</v>
+        <v>1.653900063659059</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.793553161331151</v>
@@ -8448,7 +8412,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.704875449164201</v>
+        <v>1.65523052005103</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.543345010973591</v>
@@ -8537,7 +8501,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.690238331314948</v>
+        <v>1.647352628069748</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.59975489371867</v>
@@ -8626,7 +8590,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.684182225743535</v>
+        <v>1.647060244273006</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.617284904562202</v>
@@ -8715,7 +8679,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.665909130674516</v>
+        <v>1.640248583337357</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.519068752483758</v>
@@ -8804,7 +8768,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.68523800678437</v>
+        <v>1.655215675372651</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.642132160994365</v>
@@ -8893,7 +8857,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.69260997000463</v>
+        <v>1.663072858347048</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.676993309664752</v>
@@ -8982,7 +8946,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69826978069848</v>
+        <v>1.668636589243455</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.497085199853795</v>
@@ -9071,7 +9035,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.689848270646463</v>
+        <v>1.664441386574697</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.609878947038533</v>
@@ -9160,7 +9124,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.695481873925021</v>
+        <v>1.66220655927672</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.54441241072674</v>
@@ -9249,7 +9213,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.726252306264483</v>
+        <v>1.682748101076713</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.088335897350297</v>
@@ -9535,7 +9499,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.500960850427904</v>
+        <v>1.494291381033932</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.837621327369391</v>
@@ -9624,7 +9588,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48679181411145</v>
+        <v>1.485977295506086</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.872354671311832</v>
@@ -9713,7 +9677,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519193759294128</v>
+        <v>1.504835167576746</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.334723762438482</v>
@@ -9802,7 +9766,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.540651904545521</v>
+        <v>1.522558972661526</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.675816702479791</v>
@@ -9891,7 +9855,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53131110027631</v>
+        <v>1.521552498104768</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.658802323799851</v>
@@ -9980,7 +9944,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.516096773408337</v>
+        <v>1.501306091432288</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.767090501718317</v>
@@ -10069,7 +10033,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.501876613930886</v>
+        <v>1.484376389844159</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.946265052231403</v>
@@ -10158,7 +10122,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.488834790436232</v>
+        <v>1.468357703090974</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.923827669132893</v>
@@ -10247,7 +10211,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.493668165237688</v>
+        <v>1.46539202292618</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.73026321076041</v>
@@ -10336,7 +10300,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.496484033171402</v>
+        <v>1.464279873121431</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.763748045510707</v>
@@ -10425,7 +10389,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.481449490647691</v>
+        <v>1.447347425611786</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.802304518711473</v>
@@ -10514,7 +10478,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.481582469331929</v>
+        <v>1.444340764930036</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.756771851260221</v>
@@ -10603,7 +10567,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.479618861203543</v>
+        <v>1.437680951555172</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.880540905755808</v>
@@ -10692,7 +10656,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.464547862633795</v>
+        <v>1.431664753034202</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.638555184159485</v>
@@ -10781,7 +10745,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.446658391504068</v>
+        <v>1.417876616895572</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.541778986681048</v>
@@ -10870,7 +10834,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.435729797093292</v>
+        <v>1.406056199850062</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.267997985715615</v>
@@ -10959,7 +10923,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436217897233903</v>
+        <v>1.406623347670548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.322159091764822</v>
@@ -11048,7 +11012,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.438745463372986</v>
+        <v>1.411755572157406</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.346896547188391</v>
@@ -11137,7 +11101,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.433679969090106</v>
+        <v>1.403994553333358</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.34660805972699</v>
@@ -11226,7 +11190,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.436457424806186</v>
+        <v>1.404909717918785</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.408522465235655</v>
@@ -11315,7 +11279,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447632316176019</v>
+        <v>1.412405318074819</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.239755264997839</v>
@@ -11404,7 +11368,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.445925184627226</v>
+        <v>1.411647971466473</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.416029341174964</v>
@@ -11493,7 +11457,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.443730535905955</v>
+        <v>1.406596343374912</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.33711806052667</v>
@@ -11582,7 +11546,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.43904262554079</v>
+        <v>1.405065615559778</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.36915791114756</v>
@@ -11671,7 +11635,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.435991293488768</v>
+        <v>1.405608883604798</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.371369761314427</v>
@@ -11760,7 +11724,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440984187647588</v>
+        <v>1.409932470684685</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.424031762096997</v>
@@ -11849,7 +11813,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.449326751236898</v>
+        <v>1.41686989345859</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.385552401498021</v>
@@ -11938,7 +11902,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.461419005009788</v>
+        <v>1.424522213323941</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.372096221119162</v>
@@ -12027,7 +11991,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.47306124367086</v>
+        <v>1.430184686369051</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.357874747423538</v>
@@ -12116,7 +12080,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.472133295504423</v>
+        <v>1.431801880240431</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.18258426052023</v>
@@ -12205,7 +12169,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.49180942022249</v>
+        <v>1.4487171329242</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.576714405282837</v>
@@ -12294,7 +12258,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.500841772279003</v>
+        <v>1.459114278772017</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.539417994528912</v>
@@ -12383,7 +12347,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.497922713006868</v>
+        <v>1.453613253687695</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.503982121579693</v>
@@ -12472,7 +12436,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501312050453886</v>
+        <v>1.452678875533283</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.428984625585876</v>
@@ -12561,7 +12525,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.471877589410011</v>
+        <v>1.43368923622972</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.602008850146597</v>
@@ -12650,7 +12614,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.464644993212987</v>
+        <v>1.429682572079373</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.474162935679693</v>
@@ -12739,7 +12703,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.459094793860648</v>
+        <v>1.420423210373644</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.623367280689819</v>
@@ -12828,7 +12792,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.449208481411648</v>
+        <v>1.414241665433874</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.534292738116817</v>
@@ -12917,7 +12881,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.455203584484195</v>
+        <v>1.420570178905383</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.581176341489185</v>
@@ -13006,7 +12970,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.441352736836273</v>
+        <v>1.405262433402034</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.630520900719609</v>
@@ -13095,7 +13059,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.445529067820541</v>
+        <v>1.41051018066714</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.592595615515073</v>
@@ -13184,7 +13148,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.441243898317523</v>
+        <v>1.40578143926237</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.607637672085905</v>
@@ -13273,7 +13237,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.433874616435784</v>
+        <v>1.405058929424495</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.502317164691207</v>
@@ -13362,7 +13326,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.449983099819864</v>
+        <v>1.412896152985824</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.382725048435593</v>
@@ -13451,7 +13415,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.455397127565527</v>
+        <v>1.420240595515968</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.631439499032587</v>
@@ -13540,7 +13504,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.453241755017674</v>
+        <v>1.418315227362425</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.599234772747398</v>
@@ -13629,7 +13593,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.442761851918044</v>
+        <v>1.410751508805419</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.685324768296468</v>
@@ -13718,7 +13682,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.447083412789361</v>
+        <v>1.415810277569238</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.670515360037367</v>
@@ -13807,7 +13771,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.472164014107159</v>
+        <v>1.43669493780696</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.237378048621776</v>
@@ -14093,7 +14057,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.630953336339776</v>
+        <v>1.581191684177615</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.19615271134623</v>
@@ -14182,7 +14146,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.620018733706609</v>
+        <v>1.578436001005659</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.851786823131697</v>
@@ -14271,7 +14235,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.634205718848382</v>
+        <v>1.584523427842625</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.079977525328174</v>
@@ -14360,7 +14324,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.642427270710997</v>
+        <v>1.588808841143885</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.895737731454604</v>
@@ -14449,7 +14413,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.650718475487988</v>
+        <v>1.599730519876903</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.183850945766121</v>
@@ -14538,7 +14502,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.656252633987325</v>
+        <v>1.600315653368041</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.155231227284624</v>
@@ -14627,7 +14591,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.664630623096041</v>
+        <v>1.608626607898774</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.762332895257234</v>
@@ -14716,7 +14680,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679693708194703</v>
+        <v>1.62120161431489</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.272996821100992</v>
@@ -14805,7 +14769,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.689565636606783</v>
+        <v>1.621101501372128</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.997692908291757</v>
@@ -14894,7 +14858,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690105337663465</v>
+        <v>1.615872492576164</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.984727129114789</v>
@@ -14983,7 +14947,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686577127581992</v>
+        <v>1.609711537098035</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.303406307273624</v>
@@ -15072,7 +15036,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695584881614918</v>
+        <v>1.600628670379515</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.937511803662191</v>
@@ -15161,7 +15125,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.695181788756121</v>
+        <v>1.59468910170338</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.366411666261527</v>
@@ -15250,7 +15214,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.691859699110842</v>
+        <v>1.597437988757873</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.391722556396898</v>
@@ -15339,7 +15303,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.700815870536982</v>
+        <v>1.608836731374002</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.452720204725868</v>
@@ -15428,7 +15392,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.702889354675369</v>
+        <v>1.614921046848527</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.291664756940816</v>
@@ -15517,7 +15481,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.719412229172737</v>
+        <v>1.623536202856483</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.186765158564808</v>
@@ -15606,7 +15570,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.707052538800437</v>
+        <v>1.616038138197356</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.379410953056859</v>
@@ -15695,7 +15659,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717786678863947</v>
+        <v>1.627952122189375</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.06800885134708</v>
@@ -15784,7 +15748,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715447705729556</v>
+        <v>1.623222424905697</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.478711193357622</v>
@@ -15873,7 +15837,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.715220305827562</v>
+        <v>1.629233647597566</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.367280195552065</v>
@@ -15962,7 +15926,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.714099127005067</v>
+        <v>1.618450566217175</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.267723185856035</v>
@@ -16051,7 +16015,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.723450220842666</v>
+        <v>1.628273036859863</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.439578544505163</v>
@@ -16140,7 +16104,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.725523158346045</v>
+        <v>1.642871619443976</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.495968821997742</v>
@@ -16229,7 +16193,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.724292087193299</v>
+        <v>1.646133869705062</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.561299703310119</v>
@@ -16318,7 +16282,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730180438020795</v>
+        <v>1.642725013785617</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.262121166832296</v>
@@ -16407,7 +16371,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.730793777264039</v>
+        <v>1.646660307843752</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.543286568088833</v>
@@ -16496,7 +16460,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.74303292835476</v>
+        <v>1.651278695178229</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.634567836222919</v>
@@ -16585,7 +16549,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.746720326419424</v>
+        <v>1.649164905271298</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.122087398926471</v>
@@ -16674,7 +16638,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.746903689792451</v>
+        <v>1.645278414083913</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.530656868131911</v>
@@ -16763,7 +16727,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.752355223706969</v>
+        <v>1.640345940645959</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.271393918652615</v>
@@ -16852,7 +16816,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.757475832526899</v>
+        <v>1.644755322964068</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.640306650177155</v>
@@ -16941,7 +16905,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.767238077384528</v>
+        <v>1.654996316028343</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.429237129798228</v>
@@ -17030,7 +16994,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.765695803954989</v>
+        <v>1.649456327148432</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.430732918765929</v>
@@ -17119,7 +17083,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.748159434721637</v>
+        <v>1.642430612154005</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.476505607311383</v>
@@ -17208,7 +17172,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.749527201834959</v>
+        <v>1.642527495108554</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.451447466963304</v>
@@ -17297,7 +17261,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.74280706766137</v>
+        <v>1.644775010780112</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.371715637323438</v>
@@ -17386,7 +17350,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.746407533419932</v>
+        <v>1.641107341446273</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.351315564454086</v>
@@ -17475,7 +17439,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.747039499916353</v>
+        <v>1.630252418257755</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.126998394061209</v>
@@ -17564,7 +17528,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.738800947838791</v>
+        <v>1.61745262991264</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.194486491413623</v>
@@ -17653,7 +17617,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.713841549458108</v>
+        <v>1.607472497563091</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.822637219994403</v>
@@ -17742,7 +17706,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.706273976018644</v>
+        <v>1.605196163229148</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.962151237464171</v>
@@ -17831,7 +17795,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.704931728347257</v>
+        <v>1.615512656817382</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.074306044817684</v>
@@ -17920,7 +17884,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.696554365017346</v>
+        <v>1.608749499956268</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.069471489569394</v>
@@ -18009,7 +17973,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696850726058246</v>
+        <v>1.613287342689717</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.999093170875076</v>
@@ -18098,7 +18062,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691402876002863</v>
+        <v>1.614397613160168</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.013049571549847</v>
@@ -18187,7 +18151,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.682059209346446</v>
+        <v>1.601763525875658</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.875678174035505</v>
@@ -18276,7 +18240,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.677502690131982</v>
+        <v>1.588878744978429</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.7884242526989</v>
@@ -18365,7 +18329,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.694541109315046</v>
+        <v>1.597809187178342</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.714088050231798</v>
@@ -18651,7 +18615,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715548433647907</v>
+        <v>1.675449184281502</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.668934781889585</v>
@@ -18740,7 +18704,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.723266666789188</v>
+        <v>1.683946819278604</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.168535048202612</v>
@@ -18829,7 +18793,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.72413513897082</v>
+        <v>1.682502317062764</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.111731734028619</v>
@@ -18918,7 +18882,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.739302993760224</v>
+        <v>1.696114970444764</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.467549922091093</v>
@@ -19007,7 +18971,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.741630138392085</v>
+        <v>1.696338432982911</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.392688058453654</v>
@@ -19096,7 +19060,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.74978049706039</v>
+        <v>1.694499546207327</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.378829291794238</v>
@@ -19185,7 +19149,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.776191894765122</v>
+        <v>1.715666091932512</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.826682406024828</v>
@@ -19274,7 +19238,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.781598738498003</v>
+        <v>1.721913907140485</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.376209806154267</v>
@@ -19363,7 +19327,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.784062891553198</v>
+        <v>1.726636210221313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.822297490721234</v>
@@ -19452,7 +19416,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.783319863760556</v>
+        <v>1.725971662173277</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.404937281359534</v>
@@ -19541,7 +19505,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.778894659234438</v>
+        <v>1.720796813375711</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.852203279504354</v>
@@ -19630,7 +19594,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.794278679911245</v>
+        <v>1.7277648788645</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.291423217454114</v>
@@ -19719,7 +19683,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.781335804260926</v>
+        <v>1.719354559625113</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.68718689119112</v>
@@ -19808,7 +19772,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.777976999486406</v>
+        <v>1.718961732691782</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.235425462555731</v>
@@ -19897,7 +19861,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.700689888556058</v>
+        <v>1.658603883299409</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.275347279725096</v>
@@ -19986,7 +19950,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.689462518282287</v>
+        <v>1.654207677822842</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.230038987168981</v>
@@ -20075,7 +20039,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688704834726696</v>
+        <v>1.653599364569443</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.270005450333185</v>
@@ -20164,7 +20128,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.689131427733222</v>
+        <v>1.654718591342509</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.271606007261902</v>
@@ -20253,7 +20217,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690065799685754</v>
+        <v>1.657300389264648</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.265878509436004</v>
@@ -20342,7 +20306,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.693562202001402</v>
+        <v>1.658185991111273</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.293342445848818</v>
@@ -20431,7 +20395,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.694682499007851</v>
+        <v>1.664447304464653</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.213802629900702</v>
@@ -20520,7 +20484,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.692727330299139</v>
+        <v>1.655074414511673</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.301090733906072</v>
@@ -20609,7 +20573,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.702588825695917</v>
+        <v>1.662343167076717</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.21681788762661</v>
@@ -20698,7 +20662,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.710337042299424</v>
+        <v>1.673858167694694</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.300171212932128</v>
@@ -20787,7 +20751,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.702563912229711</v>
+        <v>1.67153743495598</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.25957167807701</v>
@@ -20876,7 +20840,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.706575547383517</v>
+        <v>1.667758131951656</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.247886947201137</v>
@@ -20965,7 +20929,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.707077705773924</v>
+        <v>1.666319005756042</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.271724864244657</v>
@@ -21054,7 +21018,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.715047589122399</v>
+        <v>1.671320353287516</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.32216153810645</v>
@@ -21143,7 +21107,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721564166155422</v>
+        <v>1.677304048615508</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.249268464959157</v>
@@ -21232,7 +21196,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.795823812942338</v>
+        <v>1.740184273538694</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.936703674050136</v>
@@ -21321,7 +21285,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.808916633284195</v>
+        <v>1.739396999493038</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.122661790837466</v>
@@ -21410,7 +21374,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.812702474393449</v>
+        <v>1.736342001378164</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.250601793898654</v>
@@ -21499,7 +21463,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.815366630256296</v>
+        <v>1.738282536095371</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.30821169444212</v>
@@ -21588,7 +21552,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.807268569420173</v>
+        <v>1.722442756972336</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.619320224171517</v>
@@ -21677,7 +21641,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.792170293843418</v>
+        <v>1.717404469134551</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.507493093662547</v>
@@ -21766,7 +21730,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.790204066079343</v>
+        <v>1.713569468515676</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.111757494787099</v>
@@ -21855,7 +21819,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.784914312837365</v>
+        <v>1.706437619596712</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.268626952259641</v>
@@ -21944,7 +21908,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.773949570461846</v>
+        <v>1.696104361927009</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.49835898795115</v>
@@ -22033,7 +21997,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.778606261799711</v>
+        <v>1.694226378909575</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.924561234058313</v>
@@ -22122,7 +22086,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.778477934052699</v>
+        <v>1.691097960661128</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.384657148743228</v>
@@ -22211,7 +22175,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.777094470271198</v>
+        <v>1.696008108562505</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.427939429932009</v>
@@ -22300,7 +22264,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.781926239120305</v>
+        <v>1.706670623787675</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.213545530521447</v>
@@ -22389,7 +22353,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.779872723612143</v>
+        <v>1.705715135073061</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.293663605990376</v>
@@ -22478,7 +22442,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.781757552945997</v>
+        <v>1.700976856194504</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.307527034629754</v>
@@ -22567,7 +22531,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.780345367801461</v>
+        <v>1.698668290944691</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.291683635082997</v>
@@ -22656,7 +22620,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.787046707118646</v>
+        <v>1.711806252937528</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.385713218755623</v>
@@ -22745,7 +22709,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.782714187030425</v>
+        <v>1.703581765356858</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.294603475043061</v>
@@ -22834,7 +22798,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.783654594054041</v>
+        <v>1.699716879873565</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.45259230197081</v>
@@ -22923,7 +22887,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.788438339344418</v>
+        <v>1.700628320409534</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.816153889791573</v>
@@ -23209,7 +23173,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.522174185836073</v>
+        <v>1.518126116898428</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.127018347630349</v>
@@ -23298,7 +23262,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.499127733636043</v>
+        <v>1.503062870107813</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.02103779888323</v>
@@ -23387,7 +23351,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487822438592093</v>
+        <v>1.492604778500452</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.800953546784896</v>
@@ -23476,7 +23440,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.480080009765943</v>
+        <v>1.481811162920355</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.876418875845826</v>
@@ -23565,7 +23529,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.462580387045979</v>
+        <v>1.459705427812945</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.774914447963446</v>
@@ -23654,7 +23618,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.456574964450712</v>
+        <v>1.450974922471165</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.754347488037832</v>
@@ -23743,7 +23707,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.440054686591833</v>
+        <v>1.436588029087867</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.705356555120611</v>
@@ -23832,7 +23796,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.433870735630047</v>
+        <v>1.432925522922618</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.589643284689118</v>
@@ -23921,7 +23885,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.430983677563508</v>
+        <v>1.425380791341382</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.484379913723298</v>
@@ -24010,7 +23974,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.440024145575147</v>
+        <v>1.432163941739401</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.440196402368321</v>
@@ -24099,7 +24063,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433953630790635</v>
+        <v>1.424567289477174</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.699271648043462</v>
@@ -24188,7 +24152,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.43643950903711</v>
+        <v>1.426184863852164</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.55784005513397</v>
@@ -24277,7 +24241,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.45344281678471</v>
+        <v>1.442552457266853</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.595921803840442</v>
@@ -24366,7 +24330,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.450119999235339</v>
+        <v>1.442955723705895</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.703266054494214</v>
@@ -24455,7 +24419,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.430305126192656</v>
+        <v>1.42191709848401</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.520791075496957</v>
@@ -24544,7 +24508,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.425483985325086</v>
+        <v>1.411338844474761</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.149286738253759</v>
@@ -24633,7 +24597,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.435010138082512</v>
+        <v>1.419813474185426</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.228088310259222</v>
@@ -24722,7 +24686,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.431405646860804</v>
+        <v>1.414018713880727</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.161492021316575</v>
@@ -24811,7 +24775,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.443043256098316</v>
+        <v>1.422799562519322</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.244487324904295</v>
@@ -24900,7 +24864,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.44089222569149</v>
+        <v>1.421970135894367</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.236085504948832</v>
@@ -24989,7 +24953,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447236463673442</v>
+        <v>1.425095499452005</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.08354404501469</v>
@@ -25078,7 +25042,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.439888312218285</v>
+        <v>1.415665549191266</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.340699877470331</v>
@@ -25167,7 +25131,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.435357592485164</v>
+        <v>1.408463354559068</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.284787748991196</v>
@@ -25256,7 +25220,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.436419312022701</v>
+        <v>1.408670305046322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.227384650693853</v>
@@ -25345,7 +25309,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.429699953966181</v>
+        <v>1.398812696398998</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.188898581851183</v>
@@ -25434,7 +25398,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.442874725770886</v>
+        <v>1.411278427489021</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.238271756297682</v>
@@ -25523,7 +25487,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.445693500464457</v>
+        <v>1.411413223530436</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.245754885728678</v>
@@ -25612,7 +25576,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.450833494516649</v>
+        <v>1.412388075547409</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.303677885696739</v>
@@ -25701,7 +25665,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.447426440725698</v>
+        <v>1.413920549858026</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.272189366569594</v>
@@ -25790,7 +25754,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.460556984832147</v>
+        <v>1.429011154783407</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.155166346364657</v>
@@ -25879,7 +25843,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.484163289882391</v>
+        <v>1.453683881390563</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.656122102914391</v>
@@ -25968,7 +25932,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.496260627983304</v>
+        <v>1.45725628923339</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.576299457518804</v>
@@ -26057,7 +26021,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484382686418168</v>
+        <v>1.453751602293239</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.55356272792256</v>
@@ -26146,7 +26110,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.464558410746854</v>
+        <v>1.435333577215881</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.688800585804493</v>
@@ -26235,7 +26199,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.450594513471361</v>
+        <v>1.424571591245723</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.733187469798193</v>
@@ -26324,7 +26288,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.446316627363262</v>
+        <v>1.421959070661172</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.655881492715825</v>
@@ -26413,7 +26377,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.464177440741165</v>
+        <v>1.435887585619552</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.434792229160752</v>
@@ -26502,7 +26466,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.465357804666835</v>
+        <v>1.44206438825111</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.884962559523409</v>
@@ -26591,7 +26555,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.464001375766375</v>
+        <v>1.44365026000854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.643768236232749</v>
@@ -26680,7 +26644,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.457229777987289</v>
+        <v>1.440041555360131</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.628866426607271</v>
@@ -26769,7 +26733,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.445514126945457</v>
+        <v>1.432915169862605</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.71784594289222</v>
@@ -26858,7 +26822,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444981638361875</v>
+        <v>1.432008976352917</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.822835392150953</v>
@@ -26947,7 +26911,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.440734458293962</v>
+        <v>1.429388290668701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.703290587104302</v>
@@ -27036,7 +27000,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.452856825040168</v>
+        <v>1.433438997854573</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.584897084714341</v>
@@ -27125,7 +27089,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.444185733027172</v>
+        <v>1.425633231097724</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.853040646272024</v>
@@ -27214,7 +27178,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.441748125894722</v>
+        <v>1.427199980803747</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.801403423996135</v>
@@ -27303,7 +27267,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.43563043610833</v>
+        <v>1.422413964608831</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.578489783890641</v>
@@ -27392,7 +27356,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.437456978475991</v>
+        <v>1.419790833070841</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.576186364371359</v>
@@ -27481,7 +27445,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.455309394837797</v>
+        <v>1.439038896436139</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.710129251025334</v>
@@ -27767,7 +27731,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.682134047651222</v>
+        <v>1.67698474338636</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.97985073492346</v>
@@ -27856,7 +27820,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.704376757953755</v>
+        <v>1.696113043658261</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.701320587264735</v>
@@ -27945,7 +27909,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.716187858110463</v>
+        <v>1.704788017173944</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.705429919566392</v>
@@ -28034,7 +27998,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.751087843738473</v>
+        <v>1.735516902775733</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.881324865465811</v>
@@ -28123,7 +28087,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.753553634022311</v>
+        <v>1.737877815645913</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.155061788347547</v>
@@ -28212,7 +28176,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.761865989514109</v>
+        <v>1.743264509957997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.150195569042032</v>
@@ -28301,7 +28265,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.810908313810739</v>
+        <v>1.788791999350785</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.888412626783411</v>
@@ -28390,7 +28354,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.84296657886399</v>
+        <v>1.823859245269429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.819238941682216</v>
@@ -28479,7 +28443,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.839393120896341</v>
+        <v>1.828999906944149</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.90703543776737</v>
@@ -28568,7 +28532,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.840085671406748</v>
+        <v>1.829134650657763</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.256215804228173</v>
@@ -28657,7 +28621,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.830950542393341</v>
+        <v>1.823134720106851</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.414734136251737</v>
@@ -28746,7 +28710,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.835676779034858</v>
+        <v>1.823018853018892</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.180726967161102</v>
@@ -28835,7 +28799,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.832868761981794</v>
+        <v>1.82468452941419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.417375590565538</v>
@@ -28924,7 +28888,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.837808147766832</v>
+        <v>1.840023071371598</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.752682695294644</v>
@@ -29013,7 +28977,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.835430989365221</v>
+        <v>1.84084239149581</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.444154281844188</v>
@@ -29102,7 +29066,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.811345200382363</v>
+        <v>1.820538914793558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.765560778373587</v>
@@ -29191,7 +29155,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.798637860286041</v>
+        <v>1.809658985722643</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.891624696597787</v>
@@ -29280,7 +29244,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.800437815145286</v>
+        <v>1.812317741462294</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.831865244471843</v>
@@ -29369,7 +29333,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.799544598040923</v>
+        <v>1.816256884095007</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.891756825440805</v>
@@ -29458,7 +29422,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.811993249188736</v>
+        <v>1.831227862295738</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.852228160902168</v>
@@ -29547,7 +29511,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.815555547041548</v>
+        <v>1.835190235005681</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.901913032208581</v>
@@ -29636,7 +29600,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.810361444430216</v>
+        <v>1.823961166925673</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.783402213623536</v>
@@ -29725,7 +29689,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.801709931469115</v>
+        <v>1.812867230814121</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.961575988203587</v>
@@ -29814,7 +29778,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.782402316704945</v>
+        <v>1.796483234854256</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.824898153862564</v>
@@ -29903,7 +29867,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.77691908912923</v>
+        <v>1.791312328803921</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.874960239431609</v>
@@ -29992,7 +29956,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.794733676926689</v>
+        <v>1.799603476662923</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.818352815429482</v>
@@ -30081,7 +30045,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.799509973479267</v>
+        <v>1.802248777917776</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.814145983844666</v>
@@ -30170,7 +30134,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.815132107209955</v>
+        <v>1.811380737479663</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.841371841429972</v>
@@ -30259,7 +30223,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.807997514225804</v>
+        <v>1.803017923222531</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.106062390698651</v>
@@ -30348,7 +30312,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.803375883098733</v>
+        <v>1.797670776889179</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.675581996876303</v>
@@ -30437,7 +30401,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.840292603362939</v>
+        <v>1.825327485372615</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.344719571802911</v>
@@ -30526,7 +30490,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.850665865075536</v>
+        <v>1.82556279300833</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.326972539098427</v>
@@ -30615,7 +30579,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.852544705887434</v>
+        <v>1.825060203943703</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.584713750359573</v>
@@ -30704,7 +30668,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.836125841290049</v>
+        <v>1.806772287091488</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.315436528696226</v>
@@ -30793,7 +30757,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.828577500018029</v>
+        <v>1.806441874160036</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.324753517992268</v>
@@ -30882,7 +30846,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.825730228569247</v>
+        <v>1.805273735250476</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.42190971612612</v>
@@ -30971,7 +30935,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.824211514541064</v>
+        <v>1.803720686986848</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.171484745407565</v>
@@ -31060,7 +31024,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.829626440069785</v>
+        <v>1.806392937855276</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.254829821580621</v>
@@ -31149,7 +31113,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.853869650028297</v>
+        <v>1.819569610066896</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.596375997043517</v>
@@ -31238,7 +31202,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.858639834640572</v>
+        <v>1.820582535405878</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.451677609007425</v>
@@ -31327,7 +31291,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.844807286781917</v>
+        <v>1.81556116398542</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.503135357165926</v>
@@ -31416,7 +31380,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.845718861121388</v>
+        <v>1.823971408407956</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.577499214330716</v>
@@ -31505,7 +31469,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.836146854226937</v>
+        <v>1.823120012905644</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.231829169905287</v>
@@ -31594,7 +31558,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.851021740710518</v>
+        <v>1.831416409028072</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.674231937227007</v>
@@ -31683,7 +31647,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.856685981058881</v>
+        <v>1.83922297062107</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.392357045165108</v>
@@ -31772,7 +31736,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.860869033786533</v>
+        <v>1.844197957928163</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.121492667106191</v>
@@ -31861,7 +31825,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.86132684400105</v>
+        <v>1.845016569942055</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.732134858001523</v>
@@ -31950,7 +31914,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.857590039070207</v>
+        <v>1.837760635017001</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.75712206856466</v>
@@ -32039,7 +32003,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.881935596398728</v>
+        <v>1.846945598153503</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.120860335379279</v>
